--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.95</v>
+        <v>-7.702000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.838000000000001</v>
+        <v>-7.945</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.47</v>
+        <v>-12.983</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.412</v>
+        <v>-22.231</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.97</v>
+        <v>-22.148</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.48</v>
+        <v>16.451</v>
       </c>
     </row>
     <row r="11">
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.617999999999999</v>
+        <v>-7.384</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.572</v>
+        <v>-21.663</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.306</v>
+        <v>17.578</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.284</v>
+        <v>16.416</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.418</v>
+        <v>-13.291</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.385999999999999</v>
+        <v>-8.196</v>
       </c>
       <c r="E14" t="n">
-        <v>16.056</v>
+        <v>16.583</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.588</v>
+        <v>-13.728</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -734,16 +734,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.698</v>
+        <v>-21.862</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.476</v>
+        <v>-12.226</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.494</v>
+        <v>-7.768000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.456</v>
+        <v>-8.254999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.866</v>
+        <v>-12.684</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.884</v>
+        <v>-8.416</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.934</v>
+        <v>-21.953</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.068000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,13 +927,13 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.062</v>
+        <v>-12.591</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.612</v>
+        <v>16.747</v>
       </c>
     </row>
     <row r="30">
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.31</v>
+        <v>-12.392</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,10 +961,10 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-11.688</v>
+        <v>-12.832</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.212000000000001</v>
+        <v>-7.858</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.594</v>
+        <v>17.057</v>
       </c>
     </row>
     <row r="33">
@@ -1029,13 +1029,13 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.194</v>
+        <v>-12.532</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.736</v>
+        <v>16.525</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.12</v>
+        <v>-20.044</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.862</v>
+        <v>-7.759</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.988</v>
+        <v>-12.782</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.48</v>
+        <v>-8.304</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>16.974</v>
+        <v>16.789</v>
       </c>
     </row>
     <row r="44">
@@ -1182,10 +1182,10 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.82</v>
+        <v>-12.993</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.6</v>
+        <v>-7.592000000000001</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.562</v>
+        <v>-7.395</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.148</v>
+        <v>17.176</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>16.426</v>
+        <v>16.449</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.866</v>
+        <v>-12.784</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.58</v>
+        <v>16.365</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>16.964</v>
+        <v>16.757</v>
       </c>
     </row>
     <row r="52">
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.414</v>
+        <v>-12.524</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.136</v>
+        <v>-21.946</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1389,10 +1389,10 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.104000000000001</v>
+        <v>-8.19</v>
       </c>
       <c r="E56" t="n">
-        <v>16.318</v>
+        <v>16.237</v>
       </c>
     </row>
     <row r="57">
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.204000000000001</v>
+        <v>-8.401</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.486</v>
+        <v>16.461</v>
       </c>
     </row>
     <row r="62">
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.772</v>
+        <v>-7.928999999999999</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.612</v>
+        <v>-21.602</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.004</v>
+        <v>-11.281</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.478</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="70">
@@ -1647,7 +1647,7 @@
         <v>-7.44</v>
       </c>
       <c r="E71" t="n">
-        <v>17.314</v>
+        <v>17.31</v>
       </c>
     </row>
     <row r="72">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.236000000000001</v>
+        <v>-8.193000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.354</v>
+        <v>-13.314</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.972</v>
+        <v>-20.262</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.572</v>
+        <v>-20.099</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.85</v>
+        <v>-21.449</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1783,12 +1783,12 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.144</v>
+        <v>16.748</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.884</v>
+        <v>-20.228</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.778</v>
+        <v>-21.698</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1817,12 +1817,12 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>17.16</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.106</v>
+        <v>-22.124</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-21.936</v>
+        <v>-22.177</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.754</v>
+        <v>-13.215</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-13.082</v>
+        <v>-13.013</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.062</v>
+        <v>-7.43</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1998,13 +1998,13 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-12.168</v>
+        <v>-11.733</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.840000000000001</v>
+        <v>-7.551</v>
       </c>
       <c r="E92" t="n">
-        <v>16.658</v>
+        <v>16.724</v>
       </c>
     </row>
     <row r="93">
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.398000000000001</v>
+        <v>-7.355</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.67</v>
+        <v>-7.836</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.45</v>
+        <v>-12.665</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.16</v>
+        <v>-13.649</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2145,16 +2145,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.058</v>
+        <v>-20.761</v>
       </c>
       <c r="B101" t="n">
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.346</v>
+        <v>-12.592</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.646000000000001</v>
+        <v>-7.830000000000001</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2162,13 +2162,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-19.968</v>
+        <v>-19.812</v>
       </c>
       <c r="B102" t="n">
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.504</v>
+        <v>-12.567</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
